--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1626740.864309025</v>
+        <v>1623723.273908088</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>349.6367328378088</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>78.71433359593196</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>72.13254484451623</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +899,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>52.82290122762527</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>174.9239964210458</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>70.25847380620357</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>23.5920649651674</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>156.0582739785054</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>222.3049038526065</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>94.62332623081474</v>
       </c>
       <c r="U10" t="n">
-        <v>20.97516701831622</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1427,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>46.2530778377178</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.4285848360769</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>170.6749938328998</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>14.73664328357051</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>76.9442662872342</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>201.9329882306614</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>237.4804158064617</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>96.78528632085934</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>125.3064083316248</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>54.92853024947654</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>22.62632676293207</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>136.9241283669921</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>147.6461444058331</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3916,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>55.2220913850421</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>79.71208056177232</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2617.639663143544</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2617.639663143544</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2363.877877781635</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2363.877877781635</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2011.109222511521</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>1637.643464250441</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1637.643464250441</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>411.0461427127116</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>411.0461427127116</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>263.1330491303185</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>263.1330491303185</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>263.1330491303185</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.8624625746712</v>
+        <v>579.9823256406185</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>936.2491605982752</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C5" t="n">
-        <v>936.2491605982752</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>936.2491605982752</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>936.2491605982752</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>525.2632558086677</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>107.2994477068546</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.483574129469</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859355</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982752</v>
+        <v>2344.280697856589</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982752</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
         <v>713.8062203571349</v>
@@ -4656,37 +4656,37 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.0594214943677</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943677</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4756,19 +4756,19 @@
         <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541693</v>
+        <v>385.7080860629399</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541693</v>
+        <v>385.7080860629399</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.069036214947</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,7 +4799,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2163.808208254881</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1773.668876279069</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782187</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468205</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="U10" t="n">
-        <v>235.9284171545819</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="V10" t="n">
-        <v>235.9284171545819</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="11">
@@ -5036,52 +5036,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5106,19 +5106,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
@@ -5127,13 +5127,13 @@
         <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5194,7 +5194,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5312,13 +5312,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5464,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="17">
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5592,13 +5592,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
         <v>1247.466478653857</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X19" t="n">
-        <v>1270.926719659885</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y19" t="n">
-        <v>1270.926719659885</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="20">
@@ -5750,19 +5750,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324574</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954967</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,16 +6066,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3889.283315426963</v>
+        <v>4117.121435937515</v>
       </c>
       <c r="C28" t="n">
-        <v>3889.283315426963</v>
+        <v>4117.121435937515</v>
       </c>
       <c r="D28" t="n">
-        <v>3889.283315426963</v>
+        <v>3967.00479652518</v>
       </c>
       <c r="E28" t="n">
-        <v>3889.283315426963</v>
+        <v>3967.00479652518</v>
       </c>
       <c r="F28" t="n">
         <v>3889.283315426963</v>
@@ -6394,40 +6394,40 @@
         <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>4660.934562929844</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>4371.805924143402</v>
       </c>
       <c r="V28" t="n">
-        <v>4093.25603081147</v>
+        <v>4117.121435937515</v>
       </c>
       <c r="W28" t="n">
-        <v>3889.283315426963</v>
+        <v>4117.121435937515</v>
       </c>
       <c r="X28" t="n">
-        <v>3889.283315426963</v>
+        <v>4117.121435937515</v>
       </c>
       <c r="Y28" t="n">
-        <v>3889.283315426963</v>
+        <v>4117.121435937515</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,25 +6482,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>485.5200852635876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916677</v>
+        <v>3628.091576844583</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227851</v>
+        <v>4620.975365128978</v>
       </c>
       <c r="V31" t="n">
-        <v>4317.041446021964</v>
+        <v>4366.290876923091</v>
       </c>
       <c r="W31" t="n">
-        <v>4027.624275985004</v>
+        <v>4076.87370688613</v>
       </c>
       <c r="X31" t="n">
-        <v>3799.634725086987</v>
+        <v>3848.884155988113</v>
       </c>
       <c r="Y31" t="n">
-        <v>3578.842145943457</v>
+        <v>3628.091576844583</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,61 +6689,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>391.964542768369</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C34" t="n">
-        <v>391.964542768369</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3712637033469</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>619.9540936663864</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X34" t="n">
-        <v>391.964542768369</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.964542768369</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6953,16 +6953,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4239.569720395627</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C37" t="n">
-        <v>4239.569720395627</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507267</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924874</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4460.362299539157</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>4460.362299539157</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y37" t="n">
-        <v>4239.569720395627</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7163,37 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>2801.004654415706</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>3569.372800808168</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>1360.609070187203</v>
       </c>
       <c r="V40" t="n">
-        <v>1164.055751909234</v>
+        <v>1105.924581981316</v>
       </c>
       <c r="W40" t="n">
-        <v>1164.055751909234</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="X40" t="n">
-        <v>1164.055751909234</v>
+        <v>816.5074119443557</v>
       </c>
       <c r="Y40" t="n">
-        <v>1164.055751909234</v>
+        <v>595.7148328008255</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,7 +7424,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899127</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831246</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1141.200876391121</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="C43" t="n">
-        <v>972.2646934632137</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D43" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7594,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X43" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y43" t="n">
-        <v>1322.84934122136</v>
+        <v>1009.867621687013</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>559.3346142065632</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>411.4215206241701</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>264.5315731262597</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1194.613602254709</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V46" t="n">
-        <v>1194.613602254709</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8775,22 +8775,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,16 +10905,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978186</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5789023442195</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.40339534586045</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>55.03466155613737</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>237.4010000402575</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>68.47678173569705</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>84.59001010592957</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>61.34209567542497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24892,7 +24892,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>48.75693659211569</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>83.04669386107796</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>23.3090646865876</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>93.68694276873582</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25372,13 +25372,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.2056534190052</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>149.3132240315853</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>19.60067669279474</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25834,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>111.2714770783355</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>206.525271836805</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="E2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852501</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852503</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="L2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="M2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="L2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="M2" t="n">
-        <v>469234.8716852503</v>
-      </c>
       <c r="N2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336561.6391011394</v>
+        <v>-336976.8536106068</v>
       </c>
       <c r="C6" t="n">
-        <v>253406.240113405</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="D6" t="n">
-        <v>253406.2401134051</v>
+        <v>252991.0256039377</v>
       </c>
       <c r="E6" t="n">
-        <v>-162623.991394672</v>
+        <v>-162958.1603618013</v>
       </c>
       <c r="F6" t="n">
-        <v>362536.0450822241</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="G6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="H6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="I6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150947</v>
       </c>
       <c r="J6" t="n">
-        <v>186112.8258896314</v>
+        <v>185778.6569225019</v>
       </c>
       <c r="K6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="L6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="M6" t="n">
-        <v>227735.0298483871</v>
+        <v>227400.8608812576</v>
       </c>
       <c r="N6" t="n">
-        <v>362536.0450822242</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="O6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150948</v>
       </c>
       <c r="P6" t="n">
-        <v>362536.0450822243</v>
+        <v>362201.8761150949</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>33.0971088256718</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>95.70137921303954</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>84.03834399727891</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>158.9207969366492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,10 +27619,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>271.0998715367319</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>41.52432393661195</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109.5735063757337</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>262.9309333714236</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>226.6755676849752</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>147.4261968258625</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>130.4117792272695</v>
       </c>
       <c r="U10" t="n">
-        <v>265.3067072236615</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31522,7 +31522,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31534,7 +31534,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119865</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770687</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37002,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37239,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37476,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958061</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37713,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37950,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1623723.273908088</v>
+        <v>1699252.943572892</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>349.6367328378088</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>235.3563837592576</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>111.6943500844841</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>72.13254484451623</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>160.0655515896125</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>174.9239964210458</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>89.97874607638039</v>
       </c>
       <c r="W7" t="n">
-        <v>23.5920649651674</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.0582739785054</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>260.356303022121</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>94.62332623081474</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>160.4740936944296</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>66.1408521553538</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.2530778377178</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>187.8326399421087</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>170.6749938328998</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2244,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452448</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>14.73664328357051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.464493753744523</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985727</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>98.22752108418105</v>
       </c>
       <c r="F28" t="n">
-        <v>76.9442662872342</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>17.93106827885175</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>237.4804158064617</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.78528632085934</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>242.0574934951308</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>101.2386603312952</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>136.9241283669921</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>147.6461444058331</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>279.1120900633769</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>55.2220913850421</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>110.1707519847948</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1018.106519274536</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1274.092391685642</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>863.106486896035</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>445.1426787942219</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1371.274936282423</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="C4" t="n">
-        <v>411.0461427127116</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="D4" t="n">
-        <v>411.0461427127116</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="E4" t="n">
-        <v>263.1330491303185</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>263.1330491303185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>263.1330491303185</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406185</v>
+        <v>471.4038777286579</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1954.141365880777</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>1942.094997264733</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1583.829298657983</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1198.041046059738</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>787.0551412701309</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>369.0913331683178</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2344.280697856589</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2344.280697856589</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2344.280697856589</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.280697856589</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.280697856589</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.141365880777</v>
+        <v>2311.057514205145</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="W7" t="n">
-        <v>385.7080860629399</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="X7" t="n">
-        <v>385.7080860629399</v>
+        <v>637.2413619070603</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>416.4487827635302</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2149.375138862102</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>741.8384553401902</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>330.8525505505826</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>316.9291464891735</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>418.2614436197335</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>418.2614436197335</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V10" t="n">
-        <v>418.2614436197335</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>418.2614436197335</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5039,16 +5041,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5066,13 +5068,13 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5106,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028583</v>
@@ -5121,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701559</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766198</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028583</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5239,10 +5241,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5431,25 +5433,25 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>1187.92115703528</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5510,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1309.18633122244</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1085.400916011945</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>420.0340835819383</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123426</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123426</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,19 +5764,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>564.1830073829216</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>1484.03077229167</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.613602254709</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X22" t="n">
-        <v>966.6240513566914</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y22" t="n">
-        <v>745.8314722131613</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,46 +5974,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.741218938855</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>3609.741218938855</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.624579526519</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.624579526519</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.624579526519</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.624579526519</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.0691578038</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>4347.940519017363</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>4347.940519017363</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>4058.523348980402</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>3830.533798082385</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>3609.741218938855</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4117.121435937515</v>
+        <v>773.4546787353345</v>
       </c>
       <c r="C28" t="n">
-        <v>4117.121435937515</v>
+        <v>773.4546787353345</v>
       </c>
       <c r="D28" t="n">
-        <v>3967.00479652518</v>
+        <v>773.4546787353345</v>
       </c>
       <c r="E28" t="n">
-        <v>3967.00479652518</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>4660.934562929844</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>4371.805924143402</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>4117.121435937515</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>4117.121435937515</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="X28" t="n">
-        <v>4117.121435937515</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="Y28" t="n">
-        <v>4117.121435937515</v>
+        <v>955.1031435655742</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3628.091576844583</v>
+        <v>579.0685056491545</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>410.1323227212476</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4620.975365128978</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4366.290876923091</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>4076.87370688613</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>3848.884155988113</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y31" t="n">
-        <v>3628.091576844583</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028583</v>
@@ -6704,22 +6706,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014291</v>
@@ -6728,22 +6730,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6770,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
@@ -6777,22 +6779,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>822.6075462588844</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="C34" t="n">
-        <v>653.6713633309776</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="D34" t="n">
-        <v>503.5547239186418</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625195</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636324</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403507</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4744.160657054475</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4520.375241843981</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>4231.246603057539</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>3976.562114851652</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>3687.144944814691</v>
       </c>
       <c r="X34" t="n">
-        <v>920.3704617344999</v>
+        <v>3459.155393916674</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.3704617344999</v>
+        <v>3459.155393916674</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014291</v>
@@ -6965,22 +6967,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>3158.474758001779</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1141.200876391121</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C37" t="n">
-        <v>972.2646934632137</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028583</v>
@@ -7126,19 +7128,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1254.413751875952</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>999.7292636700652</v>
       </c>
       <c r="W37" t="n">
-        <v>1498.916270557902</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="X37" t="n">
-        <v>1498.916270557902</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y37" t="n">
-        <v>1322.84934122136</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J39" t="n">
-        <v>2375.989236263798</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K39" t="n">
-        <v>2525.058920465858</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L39" t="n">
-        <v>2801.004654415706</v>
+        <v>3158.474758001781</v>
       </c>
       <c r="M39" t="n">
-        <v>3569.372800808168</v>
+        <v>3465.794891281742</v>
       </c>
       <c r="N39" t="n">
-        <v>3899.2354284722</v>
+        <v>3795.657518945775</v>
       </c>
       <c r="O39" t="n">
-        <v>4568.699189774859</v>
+        <v>4075.197584164473</v>
       </c>
       <c r="P39" t="n">
-        <v>4773.721670557069</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>4174.511669151409</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>4024.395029739073</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>3876.48193615668</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>3729.591988658769</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>3561.41666697859</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U40" t="n">
-        <v>1360.609070187203</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V40" t="n">
-        <v>1105.924581981316</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W40" t="n">
-        <v>816.5074119443557</v>
+        <v>4571.437402977333</v>
       </c>
       <c r="X40" t="n">
-        <v>816.5074119443557</v>
+        <v>4343.447852079315</v>
       </c>
       <c r="Y40" t="n">
-        <v>595.7148328008255</v>
+        <v>4343.447852079315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,61 +7399,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823761</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514058</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1009.867621687013</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7600,19 +7602,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1009.867621687013</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V43" t="n">
-        <v>1009.867621687013</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>1009.867621687013</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>1009.867621687013</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>1009.867621687013</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7670,28 +7672,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,31 +7715,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
         <v>1808.163466324677</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709.4512536188989</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C46" t="n">
-        <v>709.4512536188989</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D46" t="n">
-        <v>559.3346142065632</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E46" t="n">
-        <v>411.4215206241701</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F46" t="n">
-        <v>264.5315731262597</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7834,22 +7836,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>964.1357418247858</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>709.4512536188989</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="W46" t="n">
-        <v>709.4512536188989</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="X46" t="n">
-        <v>709.4512536188989</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y46" t="n">
-        <v>709.4512536188989</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>145.2351313103809</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863232</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>96.03744927814762</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>253.7371603504737</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776735</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978186</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776735</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720712</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -11397,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>159.5688032336834</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.5789023442195</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>10.08817004149458</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>55.03466155613737</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,10 +24132,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>90.96703739368787</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24184,7 +24186,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>237.4010000402575</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.4493346137916</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,13 +24417,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>48.20644156238812</v>
       </c>
       <c r="F28" t="n">
-        <v>68.47678173569705</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24892,10 +24894,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>48.75693659211569</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.04669386107796</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>44.17985890344659</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>47.67516803624089</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25603,19 +25605,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>149.3132240315853</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>19.60067669279474</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25840,19 +25842,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>7.125262335200489</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26028,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>111.2714770783355</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>141.9668913390332</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275941</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913624.713327594</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="C2" t="n">
+        <v>492625.0619185697</v>
+      </c>
+      <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
-      <c r="C2" t="n">
-        <v>492625.0619185698</v>
-      </c>
-      <c r="D2" t="n">
-        <v>492625.0619185697</v>
-      </c>
       <c r="E2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852506</v>
       </c>
       <c r="F2" t="n">
         <v>469234.8716852505</v>
       </c>
       <c r="G2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852501</v>
       </c>
       <c r="H2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852502</v>
       </c>
       <c r="I2" t="n">
         <v>469234.8716852504</v>
@@ -26338,22 +26340,22 @@
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="L2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.898095428667148e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26442,19 +26444,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26479,31 +26481,31 @@
         <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106068</v>
+        <v>-336976.8536106069</v>
       </c>
       <c r="C6" t="n">
         <v>252991.0256039377</v>
@@ -26528,40 +26530,40 @@
         <v>252991.0256039377</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.1603618013</v>
+        <v>-162958.160361801</v>
       </c>
       <c r="F6" t="n">
         <v>362201.8761150948</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.8761150948</v>
+        <v>362201.876115094</v>
       </c>
       <c r="H6" t="n">
+        <v>362201.8761150945</v>
+      </c>
+      <c r="I6" t="n">
         <v>362201.8761150946</v>
       </c>
-      <c r="I6" t="n">
-        <v>362201.8761150947</v>
-      </c>
       <c r="J6" t="n">
-        <v>185778.6569225019</v>
+        <v>185778.6569225017</v>
       </c>
       <c r="K6" t="n">
         <v>362201.8761150948</v>
       </c>
       <c r="L6" t="n">
-        <v>362201.8761150948</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="M6" t="n">
         <v>227400.8608812576</v>
       </c>
       <c r="N6" t="n">
-        <v>362201.8761150948</v>
+        <v>362201.8761150945</v>
       </c>
       <c r="O6" t="n">
-        <v>362201.8761150948</v>
+        <v>362201.8761150946</v>
       </c>
       <c r="P6" t="n">
-        <v>362201.8761150949</v>
+        <v>362201.8761150945</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26808,10 +26810,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27047,7 @@
         <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.0971088256718</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>88.56638900509958</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>34.73961256208507</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>84.03834399727891</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>163.8572211747447</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>41.52432393661195</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>162.1588972474476</v>
       </c>
       <c r="W7" t="n">
-        <v>262.9309333714236</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>226.6755676849752</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>63.56646974223611</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4117792272695</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>125.8077805475481</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-1.392663762089796e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29250,7 +29252,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>4.619001477597825e-12</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31753,46 +31755,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31834,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32224,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35261,7 +35263,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>455.659508360847</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>460.8305752819984</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>462.3874039146955</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958061</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415054</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1699252.943572892</v>
+        <v>1692235.928681183</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>245.9196712349435</v>
       </c>
       <c r="H2" t="n">
-        <v>235.3563837592576</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>111.6943500844841</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>125.8721928563317</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>160.0655515896125</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>109.4422623037131</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>99.66075074687603</v>
       </c>
       <c r="V7" t="n">
-        <v>89.97874607638039</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>260.356303022121</v>
+        <v>311.4936872159403</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>160.4740936944296</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>66.1408521553538</v>
+        <v>121.6872846616456</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>187.8326399421087</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>57.64843562452448</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>25.81463537662916</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.464493753744523</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985727</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>98.22752108418105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>103.6823614795158</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>79.47420870022061</v>
       </c>
       <c r="D31" t="n">
-        <v>17.93106827885175</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>157.7678763908786</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>242.0574934951308</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>101.2386603312952</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>279.1120900633769</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,13 +4194,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>110.1707519847948</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1659.880644283887</v>
+        <v>2307.009759042411</v>
       </c>
       <c r="C2" t="n">
-        <v>1659.880644283887</v>
+        <v>1938.047242101999</v>
       </c>
       <c r="D2" t="n">
-        <v>1659.880644283887</v>
+        <v>1579.781543495249</v>
       </c>
       <c r="E2" t="n">
-        <v>1274.092391685642</v>
+        <v>1193.993290897004</v>
       </c>
       <c r="F2" t="n">
-        <v>863.106486896035</v>
+        <v>783.0073861073968</v>
       </c>
       <c r="G2" t="n">
-        <v>445.1426787942219</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2050.019976259699</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1659.880644283887</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4038777286579</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4038777286579</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D4" t="n">
-        <v>471.4038777286579</v>
+        <v>181.0866109681743</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>181.0866109681743</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286579</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286579</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2311.057514205145</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C5" t="n">
-        <v>1942.094997264733</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.829298657983</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>1198.041046059738</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>787.0551412701309</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>369.0913331683178</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X5" t="n">
-        <v>2311.057514205145</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y5" t="n">
-        <v>2311.057514205145</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>416.4487827635302</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>247.5125998356232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>637.2413619070603</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>637.2413619070603</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>637.2413619070603</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>416.4487827635302</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.892406545185</v>
+        <v>2310.549250954101</v>
       </c>
       <c r="C8" t="n">
-        <v>1485.892406545185</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D8" t="n">
-        <v>1127.626707938434</v>
+        <v>1583.321035406939</v>
       </c>
       <c r="E8" t="n">
-        <v>741.8384553401902</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F8" t="n">
-        <v>330.8525505505826</v>
+        <v>786.546878019087</v>
       </c>
       <c r="G8" t="n">
-        <v>316.9291464891735</v>
+        <v>368.5830699172739</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018223</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>536.6170209242687</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701559</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766198</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653858</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.666285013068</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>696.5850465240064</v>
       </c>
       <c r="X13" t="n">
-        <v>1432.107328986838</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.314749843308</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110095</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1309.18633122244</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T19" t="n">
-        <v>1085.400916011945</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>796.2722772255036</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>796.2722772255036</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>506.8551071885429</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8655562905255</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5749,37 +5749,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507007</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.384017443268</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153611</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1361.765777850405</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>1361.765777850405</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>1361.765777850405</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150552</v>
+        <v>1361.765777850405</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170379</v>
+        <v>1133.776226952388</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735078</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,46 +5974,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3609.741218938855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3609.741218938855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.624579526519</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.624579526519</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.624579526519</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.624579526519</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.0691578038</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017363</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>4347.940519017363</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>4058.523348980402</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>3830.533798082385</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y25" t="n">
-        <v>3609.741218938855</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6250,28 +6250,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>773.4546787353345</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C28" t="n">
-        <v>773.4546787353345</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>773.4546787353345</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655742</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655742</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>955.1031435655742</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="Y28" t="n">
-        <v>955.1031435655742</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="29">
@@ -6451,16 +6451,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6469,31 +6469,31 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>579.0685056491545</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C31" t="n">
-        <v>410.1323227212476</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6657,16 +6657,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>981.5095496229244</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>760.7169704793943</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6712,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014291</v>
@@ -6736,16 +6736,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916674</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916674</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916674</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916674</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916674</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014291</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4744.160657054475</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>4520.375241843981</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U34" t="n">
-        <v>4231.246603057539</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851652</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814691</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916674</v>
+        <v>870.4344461847497</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916674</v>
+        <v>870.4344461847497</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>710.3120936331045</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D37" t="n">
-        <v>560.1954542207687</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>1254.413751875952</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>999.7292636700652</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>710.3120936331045</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>710.3120936331045</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y37" t="n">
-        <v>710.3120936331045</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3158.474758001781</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3465.794891281742</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>3795.657518945775</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4075.197584164473</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>4174.511669151409</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>4024.395029739073</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3876.48193615668</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3729.591988658769</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3561.41666697859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>4860.854573014293</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>4571.437402977333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>4343.447852079315</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1017.064856369034</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>563.7235151749151</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C46" t="n">
-        <v>563.7235151749151</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D46" t="n">
-        <v>563.7235151749151</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383442</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V46" t="n">
-        <v>563.7235151749151</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W46" t="n">
-        <v>563.7235151749151</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X46" t="n">
-        <v>563.7235151749151</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.7235151749151</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>145.2351313103809</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814762</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504737</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>87.16935584025447</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>87.16935584025447</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776735</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776735</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>96.0374492781462</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>159.5688032336834</v>
+        <v>104.0223707273915</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,16 +23940,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>10.08817004149458</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>90.96703739368787</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>195.7329256817601</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.4493346137916</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>48.20644156238812</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>122.0272939095213</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>87.77261239840722</v>
       </c>
       <c r="D31" t="n">
-        <v>130.6844047393606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>22.0641037910587</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>44.17985890344659</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>47.67516803624089</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>7.125262335200489</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>141.9668913390332</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275941</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913624.7133275941</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.7133275938</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
       </c>
       <c r="E2" t="n">
-        <v>469234.8716852506</v>
+        <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="H2" t="n">
+        <v>469234.8716852504</v>
+      </c>
+      <c r="I2" t="n">
         <v>469234.8716852505</v>
       </c>
-      <c r="G2" t="n">
-        <v>469234.8716852501</v>
-      </c>
-      <c r="H2" t="n">
-        <v>469234.8716852502</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="K2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="L2" t="n">
         <v>469234.8716852504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>469234.8716852504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="L2" t="n">
-        <v>469234.8716852503</v>
       </c>
       <c r="M2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="N2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="O2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="P2" t="n">
         <v>469234.8716852503</v>
-      </c>
-      <c r="O2" t="n">
-        <v>469234.8716852503</v>
-      </c>
-      <c r="P2" t="n">
-        <v>469234.8716852502</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.898095428667148e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26444,19 +26444,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-336976.8536106069</v>
+        <v>-336976.8536106067</v>
       </c>
       <c r="C6" t="n">
         <v>252991.0256039377</v>
@@ -26530,40 +26530,40 @@
         <v>252991.0256039377</v>
       </c>
       <c r="E6" t="n">
-        <v>-162958.160361801</v>
+        <v>-163932.7516215234</v>
       </c>
       <c r="F6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.2848553736</v>
       </c>
       <c r="G6" t="n">
-        <v>362201.876115094</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="H6" t="n">
-        <v>362201.8761150945</v>
+        <v>361227.284855373</v>
       </c>
       <c r="I6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553732</v>
       </c>
       <c r="J6" t="n">
-        <v>185778.6569225017</v>
+        <v>184804.0656627801</v>
       </c>
       <c r="K6" t="n">
-        <v>362201.8761150948</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="L6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553732</v>
       </c>
       <c r="M6" t="n">
-        <v>227400.8608812576</v>
+        <v>226426.2696215358</v>
       </c>
       <c r="N6" t="n">
-        <v>362201.8761150945</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="O6" t="n">
-        <v>362201.8761150946</v>
+        <v>361227.2848553731</v>
       </c>
       <c r="P6" t="n">
-        <v>362201.8761150945</v>
+        <v>361227.284855373</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26810,10 +26810,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>167.8644987858515</v>
       </c>
       <c r="H2" t="n">
-        <v>88.56638900509958</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.73961256208507</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>19.54885516659955</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>163.8572211747447</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>107.0060580539447</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>186.6211234951017</v>
       </c>
       <c r="V7" t="n">
-        <v>162.1588972474476</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>63.56646974223611</v>
+        <v>12.42908554841688</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>125.8077805475481</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29252,7 +29252,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>4.619001477597825e-12</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>455.659508360847</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415662</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330542</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819984</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>420.3639292382673</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>420.3639292382673</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>378.4011515192544</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692235.928681183</v>
+        <v>1697175.191530214</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>354.752216257426</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>245.9196712349435</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>125.8721928563317</v>
+        <v>54.32160039817388</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>109.4422623037131</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.66075074687603</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>311.4936872159403</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>163.8950372953905</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586862</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>121.6872846616456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>42.02510219382536</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,7 +1824,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065119</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2289,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>25.81463537662916</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>118.995544662309</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>44.57730188590628</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>103.6823614795158</v>
+        <v>108.4650682136787</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>79.47420870022061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>68.12628873393942</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>157.7678763908786</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>10.13442842447624</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>122.6700682149387</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>16.7884564804724</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>81.23424437140359</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.107731335945625</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2307.009759042411</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1938.047242101999</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1579.781543495249</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1193.993290897004</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>783.0073861073968</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.009759042411</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>331.20325038051</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D4" t="n">
-        <v>181.0866109681743</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E4" t="n">
-        <v>181.0866109681743</v>
+        <v>290.7987205870807</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.7744035713887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>74.81188663097703</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2531.572661847995</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2277.810876486087</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>1946.747989142516</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1593.979333872402</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1220.513575611322</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>830.3742436355105</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.549250954101</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013689</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406939</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808694</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>786.546878019087</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>368.5830699172739</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5032,40 +5032,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528587</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2208.321444831246</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405894</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405894</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609671</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>986.0022165609671</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>696.5850465240064</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>573.668597370829</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531123</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5749,19 +5749,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5770,16 +5770,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5819,25 +5819,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>731.3351829786183</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1361.765777850405</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1361.765777850405</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1361.765777850405</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W22" t="n">
-        <v>1361.765777850405</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.776226952388</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y22" t="n">
-        <v>912.983647808858</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5989,13 +5989,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="X25" t="n">
-        <v>213.9110074201016</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1427.741252113633</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.9563154684962</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X28" t="n">
-        <v>560.9563154684962</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y28" t="n">
-        <v>560.9563154684962</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1427.741252113633</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3840174432676</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y31" t="n">
-        <v>506.0324822735073</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6736,16 +6736,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C34" t="n">
         <v>542.1367719529251</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1387.841167119728</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>1098.423997082767</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>870.4344461847497</v>
+        <v>944.5778159266949</v>
       </c>
       <c r="Y34" t="n">
-        <v>870.4344461847497</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,19 +6928,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>1263.932007306658</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,13 +7435,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C46" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>355.6416303362488</v>
       </c>
       <c r="F46" t="n">
         <v>208.7516828383384</v>
@@ -7803,7 +7803,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1493.756945976139</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1269.971530765645</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>980.8428919792032</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>726.1584037733163</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>436.7412337363557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.7516828383384</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,22 +8777,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3400780863221</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>96.03744927814716</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>87.16935584025447</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>87.16935584025447</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>104.0223707273915</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>176.5595511582694</v>
       </c>
     </row>
     <row r="14">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>48.84084321165253</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709136</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>195.7329256817601</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>133.142098661519</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>241.9456964506847</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>122.0272939095213</v>
+        <v>117.2445871753585</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>87.77261239840722</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,19 +24894,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>150.4583646181554</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22.0641037910587</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -25134,16 +25134,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>215.5752269645609</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>133.142098661519</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>103.0395871740984</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>150.4583646181554</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>65.19971827516558</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>192.8130786476576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>913624.7133275941</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913624.7133275938</v>
+        <v>913624.7133275939</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913624.7133275939</v>
+        <v>913624.713327594</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185699</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26325,7 +26325,7 @@
         <v>469234.8716852505</v>
       </c>
       <c r="F2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="G2" t="n">
         <v>469234.8716852504</v>
@@ -26337,7 +26337,7 @@
         <v>469234.8716852505</v>
       </c>
       <c r="J2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="K2" t="n">
         <v>469234.8716852505</v>
@@ -26346,16 +26346,16 @@
         <v>469234.8716852504</v>
       </c>
       <c r="M2" t="n">
+        <v>469234.8716852505</v>
+      </c>
+      <c r="N2" t="n">
         <v>469234.8716852504</v>
       </c>
-      <c r="N2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="O2" t="n">
-        <v>469234.8716852505</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="P2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852506</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26450,7 +26450,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="N4" t="n">
         <v>15045.6696214391</v>
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26530,40 +26530,40 @@
         <v>252991.0256039377</v>
       </c>
       <c r="E6" t="n">
-        <v>-163932.7516215234</v>
+        <v>-163055.6194877735</v>
       </c>
       <c r="F6" t="n">
-        <v>361227.2848553736</v>
+        <v>362104.4169891223</v>
       </c>
       <c r="G6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="H6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="I6" t="n">
-        <v>361227.2848553732</v>
+        <v>362104.4169891227</v>
       </c>
       <c r="J6" t="n">
-        <v>184804.0656627801</v>
+        <v>185681.1977965296</v>
       </c>
       <c r="K6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="L6" t="n">
-        <v>361227.2848553732</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="M6" t="n">
-        <v>226426.2696215358</v>
+        <v>227303.4017552853</v>
       </c>
       <c r="N6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891226</v>
       </c>
       <c r="O6" t="n">
-        <v>361227.2848553731</v>
+        <v>362104.4169891225</v>
       </c>
       <c r="P6" t="n">
-        <v>361227.284855373</v>
+        <v>362104.4169891227</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,7 +26758,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990174</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545554</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990178</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10.52067551358152</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>167.8644987858515</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>19.54885516659955</v>
+        <v>91.09944762475737</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>85.98948845797219</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>107.0060580539447</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.6211234951017</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595356</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12.42908554841688</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>10.52067551358101</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P12" t="n">
-        <v>331.4334930178469</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,19 +35731,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>345.2951542341714</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341712</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>420.3639292382673</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>420.3639292382673</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,16 +37162,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349808</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37399,16 +37399,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37636,10 +37636,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
